--- a/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
@@ -451,295 +451,395 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4167</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003332</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方荣发定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>003064</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>南方荣欢定期开放混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>29.85</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.10</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003332</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方荣发定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>29.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>070027</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实周期优选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003298</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003299</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007549</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011437</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,25 +900,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001885</t>
+          <t>166002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧新蓝筹混合 -E</t>
+          <t>中欧新蓝筹混合 -A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>168.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>74.79</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.57</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3186</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166002</t>
+          <t>166023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧新蓝筹混合 -A</t>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>74.79</t>
+          <t>59.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004237</t>
+          <t>010723</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧新蓝筹混合 -C</t>
+          <t>中欧价值成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>74.79</t>
+          <t>46.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4886</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004206</t>
+          <t>001811</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商元亨灵活配置混合</t>
+          <t>中欧明睿新常态混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>35.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3346</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002906</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票A</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1156</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002907</t>
+          <t>010678</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票C</t>
+          <t>中欧均衡成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>32.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005421</t>
+          <t>007549</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧嘉泽灵活配置混合</t>
+          <t>中泰开阳价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9273</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001883</t>
+          <t>630002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -E</t>
+          <t>华商盛世成长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8480</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1024,15 +1214,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>84.76</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7728</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004236</t>
+          <t>005421</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -C</t>
+          <t>中欧嘉泽灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5210</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007549</t>
+          <t>004237</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
+          <t>中欧新蓝筹混合 -C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>15.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10.09</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3870</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011437</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10.09</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010678</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合A</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010679</t>
+          <t>011437</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合C</t>
+          <t>中泰开阳价值优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010723</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中欧价值成长混合A</t>
+          <t>华商乐享互联灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010724</t>
+          <t>519767</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧价值成长混合C</t>
+          <t>交银施罗德科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001448</t>
+          <t>004236</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华商双翼平衡混合</t>
+          <t>中欧新动力混合(LOF) -C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>39.74</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>010724</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>中欧价值成长混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>003299</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>嘉实物流产业股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001811</t>
+          <t>002906</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中欧明睿新常态混合A</t>
+          <t>南方中证500量化增强股票A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005765</t>
+          <t>004740</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中欧明睿新常态混合C</t>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>519767</t>
+          <t>004206</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
+          <t>华商元亨灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001959</t>
+          <t>005765</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合</t>
+          <t>中欧明睿新常态混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>010679</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>中欧均衡成长混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>166023</t>
+          <t>001885</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+          <t>中欧新蓝筹混合 -E</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>004740</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>002907</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>南方中证500量化增强股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1556,15 +1936,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>91.50</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>8.06</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>003298</t>
+          <t>009205</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票A</t>
+          <t>兴银丰运稳益回报混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>003299</t>
+          <t>001883</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票C</t>
+          <t>中欧新动力混合(LOF) -E</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009205</t>
+          <t>009206</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合A</t>
+          <t>兴银丰运稳益回报混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>35.55</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1.60</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009206</t>
+          <t>001448</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合C</t>
+          <t>华商双翼平衡混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>35.55</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0326</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>109.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1930</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5427</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4512</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0588</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9226</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8889</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8405</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5866</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>55.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3158,4 +3159,1504 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7256</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>153.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3395</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1573</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1573</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3590</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2796</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2946</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2073</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1224</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0157</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0138</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8426</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8293</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6777</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6714</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6073</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4789</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4490</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4659,4 +4660,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4668,7 +4669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4679,17 +4680,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4699,14 +4720,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.53</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4715,14 +4758,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.79</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1836</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4731,14 +4796,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.05</v>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>157.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9609</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4747,13 +4834,1785 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>115.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7171</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7793</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>68.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2206</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9267</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3065</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2848</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2789</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1968</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1949</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1578</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1409</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9779</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8981</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7991</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7904</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7515</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7168</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5932</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5286</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4376</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4042</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3889</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3086</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6511,7 +6512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6522,17 +6523,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6542,14 +6563,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.77</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -6558,14 +6601,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.53</v>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>129.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9717</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6574,14 +6639,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.79</v>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6590,14 +6677,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>32</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.05</v>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2313</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6606,13 +6715,1839 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1442</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0430</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7039</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4839</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1812</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0953</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9334</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8895</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8804</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6537</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5744</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5391</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5373</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5338</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5015</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4687</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3097</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2928</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8430,7 +8431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8441,17 +8442,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8461,14 +8482,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.07</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0859</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -8477,14 +8520,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51.77</v>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>135.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -8493,14 +8558,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.53</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9692</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8509,14 +8596,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.79</v>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8178</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -8525,14 +8634,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>32</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17.05</v>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1808</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -8541,13 +8672,2727 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9063</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>68.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4408</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1769</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1626</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1365</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1343</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0293</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0270</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9723</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9426</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9416</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9063</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8601</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8234</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6169</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5788</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5350</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4679</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4202</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3849</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3807</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3598</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3476</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005787</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D2" t="n">
-        <v>44.35</v>
+        <v>41.24</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
-        <v>37.07</v>
+        <v>44.35</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>51.77</v>
+        <v>37.07</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>38.53</v>
+        <v>51.77</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>24.79</v>
+        <v>38.53</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>17.05</v>
+        <v>24.79</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.18</v>
       </c>
     </row>
@@ -600,6 +617,4468 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4657</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3730</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3145</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1936</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1673</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9788</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9552</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9099</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8870</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7998</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7903</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7506</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7231</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6799</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6451</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014228</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6337</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银主题优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6203</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5923</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5862</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5730</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4998</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4724</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4420</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3619</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3382</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3254</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2568</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2293</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2293</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014773</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安品质领先混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015346</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华商改革创新股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013259</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011558</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天弘宁弘六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014229</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014774</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华安品质领先混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>016052</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华商改革创新股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011559</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>天弘宁弘六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009027</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004276</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>浦银安盛安和回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>60.49</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009028</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004277</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>浦银安盛安和回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3427,7 +7906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5345,7 +9824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7187,7 +11666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8687,7 +13166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9731,7 +14210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11003,7 +15482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/603885-吉祥航空.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>41.24</v>
+        <v>38.65</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D3" t="n">
-        <v>44.35</v>
+        <v>41.24</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>37.07</v>
+        <v>44.35</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>51.77</v>
+        <v>37.07</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>38.53</v>
+        <v>51.77</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>24.79</v>
+        <v>38.53</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>17.05</v>
+        <v>24.79</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,428 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4167</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003332</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方荣发定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003064</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方荣欢定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1032,3138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8270</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2242</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>101.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8678</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5178</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2552</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0703</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0701</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0454</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9953</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9827</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8952</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8935</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7824</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7540</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7397</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7295</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014228</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6769</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银主题优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6481</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6422</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6137</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4929</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4820</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4789</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4609</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4181</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4163</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3815</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3698</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013958</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商鑫选回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010656</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华商均衡30混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014773</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安品质领先混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013959</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华商鑫选回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014229</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013259</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014774</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华安品质领先混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004446</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.92</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004447</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5078,7 +8625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7906,7 +11453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9824,7 +13371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11666,7 +15213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13166,7 +16713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14210,7 +17757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15480,402 +19027,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>070027</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实周期优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8497</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007549</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4167</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2218</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003298</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1673</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011437</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1486</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003332</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方荣发定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>29.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1194</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003064</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方荣欢定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>29.85</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1182</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003299</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1139</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>